--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7449,6 +7449,95 @@
       <c r="I220" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>384.0085714285714</v>
+      </c>
+      <c r="C221" t="n">
+        <v>382.8085714285714</v>
+      </c>
+      <c r="D221" t="n">
+        <v>391.1815384615385</v>
+      </c>
+      <c r="E221" t="n">
+        <v>387.7715384615385</v>
+      </c>
+      <c r="F221" t="n">
+        <v>385.16</v>
+      </c>
+      <c r="G221" t="n">
+        <v>383.9715384615384</v>
+      </c>
+      <c r="H221" t="n">
+        <v>380.9415384615385</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="n">
+        <v>380.3533333333333</v>
+      </c>
+      <c r="G222" t="n">
+        <v>377.9230769230769</v>
+      </c>
+      <c r="H222" t="n">
+        <v>376.1930769230769</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>372.8442857142857</v>
+      </c>
+      <c r="C223" t="n">
+        <v>373.7242857142857</v>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>375.5761538461539</v>
+      </c>
+      <c r="F223" t="n">
+        <v>372.7566666666667</v>
+      </c>
+      <c r="G223" t="n">
+        <v>370.6561538461538</v>
+      </c>
+      <c r="H223" t="n">
+        <v>368.9661538461539</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7463,7 +7552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9721,6 +9810,36 @@
       </c>
       <c r="B225" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -9889,28 +10008,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1552899971775607</v>
+        <v>0.1610504659489343</v>
       </c>
       <c r="J2" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K2" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01037077930777952</v>
+        <v>0.01139274716693972</v>
       </c>
       <c r="M2" t="n">
-        <v>8.864514512183369</v>
+        <v>8.832673815407661</v>
       </c>
       <c r="N2" t="n">
-        <v>122.680924286563</v>
+        <v>121.8198017015909</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07614212108905</v>
+        <v>11.03720080915405</v>
       </c>
       <c r="P2" t="n">
-        <v>371.7954524065617</v>
+        <v>371.7430590984255</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -9966,28 +10085,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1262689345164637</v>
+        <v>0.1273501347825119</v>
       </c>
       <c r="J3" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K3" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01053422908689883</v>
+        <v>0.01095505859685708</v>
       </c>
       <c r="M3" t="n">
-        <v>7.280691920481853</v>
+        <v>7.253163111722468</v>
       </c>
       <c r="N3" t="n">
-        <v>81.29460010611763</v>
+        <v>80.69453022297898</v>
       </c>
       <c r="O3" t="n">
-        <v>9.01635181800919</v>
+        <v>8.983013426628004</v>
       </c>
       <c r="P3" t="n">
-        <v>374.5276542798056</v>
+        <v>374.5182314804275</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -10043,28 +10162,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1427920973888334</v>
+        <v>0.1537547422591257</v>
       </c>
       <c r="J4" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K4" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01044495121639533</v>
+        <v>0.01217909243211812</v>
       </c>
       <c r="M4" t="n">
-        <v>8.160632143246598</v>
+        <v>8.169234642876594</v>
       </c>
       <c r="N4" t="n">
-        <v>104.7668485257014</v>
+        <v>104.7569242849329</v>
       </c>
       <c r="O4" t="n">
-        <v>10.23556781647708</v>
+        <v>10.23508301309437</v>
       </c>
       <c r="P4" t="n">
-        <v>377.3428567655569</v>
+        <v>377.2437622030004</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -10120,28 +10239,28 @@
         <v>0.0747</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1099151044721023</v>
+        <v>0.1100899449841053</v>
       </c>
       <c r="J5" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K5" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007074535932688475</v>
+        <v>0.007242452565696444</v>
       </c>
       <c r="M5" t="n">
-        <v>7.770597529930347</v>
+        <v>7.754096514627737</v>
       </c>
       <c r="N5" t="n">
-        <v>91.18444451760126</v>
+        <v>90.65077439288309</v>
       </c>
       <c r="O5" t="n">
-        <v>9.549054639994541</v>
+        <v>9.52107002352588</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7697390652827</v>
+        <v>378.7684938336069</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -10197,28 +10316,28 @@
         <v>0.0655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2197226388639527</v>
+        <v>0.2251529009809006</v>
       </c>
       <c r="J6" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K6" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02388237755959266</v>
+        <v>0.02585426642609223</v>
       </c>
       <c r="M6" t="n">
-        <v>7.998257147110212</v>
+        <v>7.956480208330885</v>
       </c>
       <c r="N6" t="n">
-        <v>104.4105005482196</v>
+        <v>103.331733919265</v>
       </c>
       <c r="O6" t="n">
-        <v>10.21814565115509</v>
+        <v>10.16522178406674</v>
       </c>
       <c r="P6" t="n">
-        <v>372.0604007209673</v>
+        <v>372.0112965128038</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -10274,28 +10393,28 @@
         <v>0.0702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1910650303036746</v>
+        <v>0.1917748508561196</v>
       </c>
       <c r="J7" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K7" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02483452799505192</v>
+        <v>0.02576143507777118</v>
       </c>
       <c r="M7" t="n">
-        <v>7.061504157172077</v>
+        <v>7.027472430130858</v>
       </c>
       <c r="N7" t="n">
-        <v>77.50163670423235</v>
+        <v>76.81706239350575</v>
       </c>
       <c r="O7" t="n">
-        <v>8.80350138889251</v>
+        <v>8.76453435120804</v>
       </c>
       <c r="P7" t="n">
-        <v>372.4131102857874</v>
+        <v>372.4070753790737</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -10351,28 +10470,28 @@
         <v>0.0731</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2378480465421233</v>
+        <v>0.2294808291028574</v>
       </c>
       <c r="J8" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K8" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0394447193052847</v>
+        <v>0.03789054649945034</v>
       </c>
       <c r="M8" t="n">
-        <v>6.754437379545573</v>
+        <v>6.717254925310927</v>
       </c>
       <c r="N8" t="n">
-        <v>74.23033457173003</v>
+        <v>73.61095110045012</v>
       </c>
       <c r="O8" t="n">
-        <v>8.615702790354947</v>
+        <v>8.579682459185195</v>
       </c>
       <c r="P8" t="n">
-        <v>372.0780355945351</v>
+        <v>372.1540820859441</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -10409,7 +10528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20241,6 +20360,127 @@
         </is>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>-34.810054988910416,173.16355641214372</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>-34.810784225688934,173.16366379688483</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>-34.81148502900896,173.16390489904006</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>-34.812184108619086,173.1640845044978</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>-34.812868152794636,173.16437411891388</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>-34.81355356670703,173.16469503030828</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>-34.81424065409012,173.1650150643342</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>-34.81288400020401,173.16432520209474</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>-34.81357441884729,173.16463392059237</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>-34.81425743403983,173.16496729706475</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>-34.810068620383625,173.16343547182836</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>-34.810796813360895,173.16356565281825</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>-34.81221755701826,173.16395748022578</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>-34.81290904610427,173.1642478917716</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>-34.81359947160708,173.16456050029382</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>-34.81428297225553,173.16489459761118</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -9853,7 +9853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9944,35 +9944,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -10031,27 +10036,28 @@
       <c r="P2" t="n">
         <v>371.7430590984255</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.15939650640868 -34.81052379027239, 173.16945602586378 -34.80938987792721)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.1593965064087</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.81052379027239</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.1694560258638</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.80938987792721</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.1644262661362</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.8099568340998</v>
       </c>
     </row>
@@ -10108,27 +10114,28 @@
       <c r="P3" t="n">
         <v>374.5182314804275</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.15952801465568 -34.81131459714813, 173.16956042236927 -34.81002778945131)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.1595280146557</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.81131459714813</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.1695604223693</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.81002778945131</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.1645442185125</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.81067119329973</v>
       </c>
     </row>
@@ -10185,27 +10192,28 @@
       <c r="P4" t="n">
         <v>377.2437622030004</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.15972354876968 -34.812227127733166, 173.16964900063604 -34.8104653199888)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.1597235487697</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.81222712773317</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.169649000636</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.8104653199888</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.1646862747029</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.81134622386098</v>
       </c>
     </row>
@@ -10262,27 +10270,28 @@
       <c r="P5" t="n">
         <v>378.7684938336069</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.16004551640503 -34.813247588490114, 173.16971651763225 -34.810700910140525)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.160045516405</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.81324758849011</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.1697165176323</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.81070091014053</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.1648810170186</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.81197424931532</v>
       </c>
     </row>
@@ -10339,27 +10348,28 @@
       <c r="P6" t="n">
         <v>372.0112965128038</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.16045433628102 -34.81413794933199, 173.169902862632 -34.81107685930705)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.160454336281</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.81413794933199</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.169902862632</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.81107685930705</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.1651785994565</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.81260740431952</v>
       </c>
     </row>
@@ -10416,27 +10426,28 @@
       <c r="P7" t="n">
         <v>372.4070753790737</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.160815570699 -34.81487725213546, 173.1701956189001 -34.81167646156701)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.160815570699</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.81487725213546</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.1701956189001</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.81167646156701</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.1655055947995</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.81327685685123</v>
       </c>
     </row>
@@ -10493,27 +10504,28 @@
       <c r="P8" t="n">
         <v>372.1540820859441</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.16118291150153 -34.81558675260297, 173.1705221324552 -34.812305929442466)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.1611829115015</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.81558675260297</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.1705221324552</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.81230592944247</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.1658525219784</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.81394634102271</v>
       </c>
     </row>

--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7536,6 +7536,105 @@
         <v>368.9661538461539</v>
       </c>
       <c r="I223" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>383.3857142857143</v>
+      </c>
+      <c r="C224" t="n">
+        <v>386.4057142857143</v>
+      </c>
+      <c r="D224" t="n">
+        <v>389.1492307692308</v>
+      </c>
+      <c r="E224" t="n">
+        <v>393.4992307692308</v>
+      </c>
+      <c r="F224" t="n">
+        <v>383.6466666666667</v>
+      </c>
+      <c r="G224" t="n">
+        <v>379.9292307692308</v>
+      </c>
+      <c r="H224" t="n">
+        <v>380.6192307692308</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>381.0885714285714</v>
+      </c>
+      <c r="C225" t="n">
+        <v>384.4385714285714</v>
+      </c>
+      <c r="D225" t="n">
+        <v>388.2261538461539</v>
+      </c>
+      <c r="E225" t="n">
+        <v>393.7361538461539</v>
+      </c>
+      <c r="F225" t="n">
+        <v>382.2966666666667</v>
+      </c>
+      <c r="G225" t="n">
+        <v>378.3961538461539</v>
+      </c>
+      <c r="H225" t="n">
+        <v>379.8161538461539</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>360.9685714285715</v>
+      </c>
+      <c r="C226" t="n">
+        <v>377.7585714285714</v>
+      </c>
+      <c r="D226" t="n">
+        <v>382.9207692307692</v>
+      </c>
+      <c r="E226" t="n">
+        <v>379.7407692307692</v>
+      </c>
+      <c r="F226" t="n">
+        <v>372.89</v>
+      </c>
+      <c r="G226" t="n">
+        <v>369.1307692307692</v>
+      </c>
+      <c r="H226" t="n">
+        <v>371.8307692307693</v>
+      </c>
+      <c r="I226" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7552,7 +7651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9840,6 +9939,36 @@
       </c>
       <c r="B228" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -10013,28 +10142,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1610504659489343</v>
+        <v>0.1586878648918782</v>
       </c>
       <c r="J2" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K2" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01139274716693972</v>
+        <v>0.01133260622402432</v>
       </c>
       <c r="M2" t="n">
-        <v>8.832673815407661</v>
+        <v>8.83811950516953</v>
       </c>
       <c r="N2" t="n">
-        <v>121.8198017015909</v>
+        <v>121.5220933043073</v>
       </c>
       <c r="O2" t="n">
-        <v>11.03720080915405</v>
+        <v>11.02370596960511</v>
       </c>
       <c r="P2" t="n">
-        <v>371.7430590984255</v>
+        <v>371.765669605685</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10091,28 +10220,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1273501347825119</v>
+        <v>0.1428031724532118</v>
       </c>
       <c r="J3" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K3" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01095505859685708</v>
+        <v>0.01414182544385567</v>
       </c>
       <c r="M3" t="n">
-        <v>7.253163111722468</v>
+        <v>7.21757004341662</v>
       </c>
       <c r="N3" t="n">
-        <v>80.69453022297898</v>
+        <v>80.07396352759125</v>
       </c>
       <c r="O3" t="n">
-        <v>8.983013426628004</v>
+        <v>8.948405641654341</v>
       </c>
       <c r="P3" t="n">
-        <v>374.5182314804275</v>
+        <v>374.3792661452278</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10169,28 +10298,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1537547422591257</v>
+        <v>0.171126360848121</v>
       </c>
       <c r="J4" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K4" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01217909243211812</v>
+        <v>0.01551831323823516</v>
       </c>
       <c r="M4" t="n">
-        <v>8.169234642876594</v>
+        <v>8.124271102572882</v>
       </c>
       <c r="N4" t="n">
-        <v>104.7569242849329</v>
+        <v>103.7411060457001</v>
       </c>
       <c r="O4" t="n">
-        <v>10.23508301309437</v>
+        <v>10.18533779732907</v>
       </c>
       <c r="P4" t="n">
-        <v>377.2437622030004</v>
+        <v>377.0854162912067</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10247,28 +10376,28 @@
         <v>0.0747</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1100899449841053</v>
+        <v>0.1323463636590891</v>
       </c>
       <c r="J5" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K5" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007242452565696444</v>
+        <v>0.01064470233651382</v>
       </c>
       <c r="M5" t="n">
-        <v>7.754096514627737</v>
+        <v>7.764445455440588</v>
       </c>
       <c r="N5" t="n">
-        <v>90.65077439288309</v>
+        <v>90.71748724544223</v>
       </c>
       <c r="O5" t="n">
-        <v>9.52107002352588</v>
+        <v>9.524572811703537</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7684938336069</v>
+        <v>378.5651363272122</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10325,28 +10454,28 @@
         <v>0.0655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2251529009809006</v>
+        <v>0.230572515486144</v>
       </c>
       <c r="J6" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K6" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02585426642609223</v>
+        <v>0.0279243296378634</v>
       </c>
       <c r="M6" t="n">
-        <v>7.956480208330885</v>
+        <v>7.916329118932901</v>
       </c>
       <c r="N6" t="n">
-        <v>103.331733919265</v>
+        <v>102.2419742242233</v>
       </c>
       <c r="O6" t="n">
-        <v>10.16522178406674</v>
+        <v>10.11147735121942</v>
       </c>
       <c r="P6" t="n">
-        <v>372.0112965128038</v>
+        <v>371.9619929070134</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -10403,28 +10532,28 @@
         <v>0.0702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1917748508561196</v>
+        <v>0.1874201747022918</v>
       </c>
       <c r="J7" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K7" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02576143507777118</v>
+        <v>0.02535947705992014</v>
       </c>
       <c r="M7" t="n">
-        <v>7.027472430130858</v>
+        <v>6.983094370499459</v>
       </c>
       <c r="N7" t="n">
-        <v>76.81706239350575</v>
+        <v>76.08309226106226</v>
       </c>
       <c r="O7" t="n">
-        <v>8.76453435120804</v>
+        <v>8.722562253206465</v>
       </c>
       <c r="P7" t="n">
-        <v>372.4070753790737</v>
+        <v>372.446975465255</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -10481,28 +10610,28 @@
         <v>0.0731</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2294808291028574</v>
+        <v>0.2277136151868859</v>
       </c>
       <c r="J8" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K8" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03789054649945034</v>
+        <v>0.03847998562115851</v>
       </c>
       <c r="M8" t="n">
-        <v>6.717254925310927</v>
+        <v>6.670774979082155</v>
       </c>
       <c r="N8" t="n">
-        <v>73.61095110045012</v>
+        <v>72.7904566255048</v>
       </c>
       <c r="O8" t="n">
-        <v>8.579682459185195</v>
+        <v>8.531732334379976</v>
       </c>
       <c r="P8" t="n">
-        <v>372.1540820859441</v>
+        <v>372.1704976287234</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -10540,7 +10669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20493,6 +20622,147 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>-34.81005574941547,173.1635496648668</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>-34.810779241273615,173.16370265939574</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>-34.8114888848097,173.16388317584222</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>-34.81216839917636,173.16414416276479</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>-34.81287314220304,173.16435871792015</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>-34.81356750261238,173.1646541894676</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>-34.81424179305053,173.16501182207242</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>-34.81005855421072,173.16352478041316</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>-34.81078196706541,173.16368140694297</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>-34.811490636118364,173.16387330913545</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>-34.812167749362615,173.16414663049815</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>-34.81287759310536,173.16434497914662</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>-34.813572787910296,173.16463870025459</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>-34.81424463093719,173.16500374350085</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>-34.81008312037169,173.16330682471553</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>-34.81079122324868,173.16360923810961</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>-34.81150070174945,173.16381660023026</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>-34.812206134702315,173.16400085789655</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>-34.81290860651014,173.16424924868858</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>-34.81360473037383,173.16454508878695</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>-34.81427284939588,173.16492341430256</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7635,6 +7635,72 @@
         <v>371.8307692307693</v>
       </c>
       <c r="I226" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>348.97</v>
+      </c>
+      <c r="C227" t="n">
+        <v>357.59</v>
+      </c>
+      <c r="D227" t="n">
+        <v>366.3607692307692</v>
+      </c>
+      <c r="E227" t="n">
+        <v>362.8307692307693</v>
+      </c>
+      <c r="F227" t="n">
+        <v>348.03</v>
+      </c>
+      <c r="G227" t="n">
+        <v>354.3407692307692</v>
+      </c>
+      <c r="H227" t="n">
+        <v>348.9907692307692</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>378.39</v>
+      </c>
+      <c r="C228" t="n">
+        <v>387.05</v>
+      </c>
+      <c r="D228" t="n">
+        <v>390.9592307692308</v>
+      </c>
+      <c r="E228" t="n">
+        <v>391.5892307692308</v>
+      </c>
+      <c r="F228" t="n">
+        <v>378.51</v>
+      </c>
+      <c r="G228" t="n">
+        <v>378.8592307692308</v>
+      </c>
+      <c r="H228" t="n">
+        <v>376.7492307692308</v>
+      </c>
+      <c r="I228" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7651,7 +7717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9969,6 +10035,26 @@
       </c>
       <c r="B231" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -10142,28 +10228,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1586878648918782</v>
+        <v>0.1340237988861986</v>
       </c>
       <c r="J2" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K2" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01133260622402432</v>
+        <v>0.008066085094574293</v>
       </c>
       <c r="M2" t="n">
-        <v>8.83811950516953</v>
+        <v>8.896611582201267</v>
       </c>
       <c r="N2" t="n">
-        <v>121.5220933043073</v>
+        <v>123.8857558956293</v>
       </c>
       <c r="O2" t="n">
-        <v>11.02370596960511</v>
+        <v>11.13039783186699</v>
       </c>
       <c r="P2" t="n">
-        <v>371.765669605685</v>
+        <v>371.9940323413022</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10220,28 +10306,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1428031724532118</v>
+        <v>0.1315052354160604</v>
       </c>
       <c r="J3" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K3" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01414182544385567</v>
+        <v>0.01194283395996987</v>
       </c>
       <c r="M3" t="n">
-        <v>7.21757004341662</v>
+        <v>7.293305320184382</v>
       </c>
       <c r="N3" t="n">
-        <v>80.07396352759125</v>
+        <v>81.70960671697014</v>
       </c>
       <c r="O3" t="n">
-        <v>8.948405641654341</v>
+        <v>9.039336630360115</v>
       </c>
       <c r="P3" t="n">
-        <v>374.3792661452278</v>
+        <v>374.481511069796</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10298,28 +10384,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.171126360848121</v>
+        <v>0.1654619437456422</v>
       </c>
       <c r="J4" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K4" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01551831323823516</v>
+        <v>0.01464594858777268</v>
       </c>
       <c r="M4" t="n">
-        <v>8.124271102572882</v>
+        <v>8.167288697405038</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7411060457001</v>
+        <v>104.2894898391763</v>
       </c>
       <c r="O4" t="n">
-        <v>10.18533779732907</v>
+        <v>10.21222257097721</v>
       </c>
       <c r="P4" t="n">
-        <v>377.0854162912067</v>
+        <v>377.1372915882745</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10376,28 +10462,28 @@
         <v>0.0747</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1323463636590891</v>
+        <v>0.1230457755982672</v>
       </c>
       <c r="J5" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K5" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01064470233651382</v>
+        <v>0.009203433740337719</v>
       </c>
       <c r="M5" t="n">
-        <v>7.764445455440588</v>
+        <v>7.828312769411107</v>
       </c>
       <c r="N5" t="n">
-        <v>90.71748724544223</v>
+        <v>92.04886094272942</v>
       </c>
       <c r="O5" t="n">
-        <v>9.524572811703537</v>
+        <v>9.594209761242945</v>
       </c>
       <c r="P5" t="n">
-        <v>378.5651363272122</v>
+        <v>378.6506675544057</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10454,28 +10540,28 @@
         <v>0.0655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.230572515486144</v>
+        <v>0.2024467179994326</v>
       </c>
       <c r="J6" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K6" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0279243296378634</v>
+        <v>0.02131012756757511</v>
       </c>
       <c r="M6" t="n">
-        <v>7.916329118932901</v>
+        <v>7.985414150916808</v>
       </c>
       <c r="N6" t="n">
-        <v>102.2419742242233</v>
+        <v>105.3851045264764</v>
       </c>
       <c r="O6" t="n">
-        <v>10.11147735121942</v>
+        <v>10.26572474433619</v>
       </c>
       <c r="P6" t="n">
-        <v>371.9619929070134</v>
+        <v>372.2210579156027</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -10532,28 +10618,28 @@
         <v>0.0702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1874201747022918</v>
+        <v>0.1673224390451237</v>
       </c>
       <c r="J7" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K7" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02535947705992014</v>
+        <v>0.02012906672760539</v>
       </c>
       <c r="M7" t="n">
-        <v>6.983094370499459</v>
+        <v>7.030217914468529</v>
       </c>
       <c r="N7" t="n">
-        <v>76.08309226106226</v>
+        <v>77.80275782597975</v>
       </c>
       <c r="O7" t="n">
-        <v>8.722562253206465</v>
+        <v>8.820587158799563</v>
       </c>
       <c r="P7" t="n">
-        <v>372.446975465255</v>
+        <v>372.6303023149496</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -10610,28 +10696,28 @@
         <v>0.0731</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2277136151868859</v>
+        <v>0.1988712693090159</v>
       </c>
       <c r="J8" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K8" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03847998562115851</v>
+        <v>0.02875876356686247</v>
       </c>
       <c r="M8" t="n">
-        <v>6.670774979082155</v>
+        <v>6.730183152749545</v>
       </c>
       <c r="N8" t="n">
-        <v>72.7904566255048</v>
+        <v>76.01324947698696</v>
       </c>
       <c r="O8" t="n">
-        <v>8.531732334379976</v>
+        <v>8.718557763586071</v>
       </c>
       <c r="P8" t="n">
-        <v>372.1704976287234</v>
+        <v>372.4346437701965</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -10669,7 +10755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20763,6 +20849,100 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>-34.810097770227614,173.16317684667075</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>-34.810819169694774,173.16339134246113</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>-34.81153212000878,173.16363959139642</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>-34.812252513766154,173.16382472717225</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>-34.812990568576154,173.16399625126334</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>-34.8136557188296,173.16439566002</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>-34.8143535602559,173.164693654385</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>-34.810061849140936,173.1634955473682</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-34.810778348511654,173.16370962007528</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-34.81148545078296,173.16390252280846</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>-34.8121736377703,173.16412426866617</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>-34.81289007760336,173.1643064427271</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>-34.81357119144822,173.1646433788831</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>-34.81425546872352,173.16497289170948</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7701,6 +7701,39 @@
         <v>376.7492307692308</v>
       </c>
       <c r="I228" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>371.9485714285714</v>
+      </c>
+      <c r="C229" t="n">
+        <v>371.5185714285714</v>
+      </c>
+      <c r="D229" t="n">
+        <v>369.7923076923077</v>
+      </c>
+      <c r="E229" t="n">
+        <v>371.9023076923077</v>
+      </c>
+      <c r="F229" t="n">
+        <v>369.2733333333333</v>
+      </c>
+      <c r="G229" t="n">
+        <v>371.6523076923077</v>
+      </c>
+      <c r="H229" t="n">
+        <v>371.1123076923077</v>
+      </c>
+      <c r="I229" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7717,7 +7750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B233"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10055,6 +10088,16 @@
       </c>
       <c r="B233" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10271,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1340237988861986</v>
+        <v>0.1305233741690798</v>
       </c>
       <c r="J2" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K2" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008066085094574293</v>
+        <v>0.007738540344077838</v>
       </c>
       <c r="M2" t="n">
-        <v>8.896611582201267</v>
+        <v>8.869962347215482</v>
       </c>
       <c r="N2" t="n">
-        <v>123.8857558956293</v>
+        <v>123.3316251758583</v>
       </c>
       <c r="O2" t="n">
-        <v>11.13039783186699</v>
+        <v>11.10547726015673</v>
       </c>
       <c r="P2" t="n">
-        <v>371.9940323413022</v>
+        <v>372.0265439099393</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10306,28 +10349,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1315052354160604</v>
+        <v>0.1252999233228546</v>
       </c>
       <c r="J3" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K3" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01194283395996987</v>
+        <v>0.01095330351872104</v>
       </c>
       <c r="M3" t="n">
-        <v>7.293305320184382</v>
+        <v>7.290386608504494</v>
       </c>
       <c r="N3" t="n">
-        <v>81.70960671697014</v>
+        <v>81.50582425807245</v>
       </c>
       <c r="O3" t="n">
-        <v>9.039336630360115</v>
+        <v>9.028057612691251</v>
       </c>
       <c r="P3" t="n">
-        <v>374.481511069796</v>
+        <v>374.5378844338363</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10384,28 +10427,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1654619437456422</v>
+        <v>0.1538629486698784</v>
       </c>
       <c r="J4" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K4" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01464594858777268</v>
+        <v>0.01275709559334803</v>
       </c>
       <c r="M4" t="n">
-        <v>8.167288697405038</v>
+        <v>8.18791401524723</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2894898391763</v>
+        <v>104.4275100484256</v>
       </c>
       <c r="O4" t="n">
-        <v>10.21222257097721</v>
+        <v>10.21897793560714</v>
       </c>
       <c r="P4" t="n">
-        <v>377.1372915882745</v>
+        <v>377.2440240168394</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10462,28 +10505,28 @@
         <v>0.0747</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1230457755982672</v>
+        <v>0.1134187604424509</v>
       </c>
       <c r="J5" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K5" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009203433740337719</v>
+        <v>0.007878982167108695</v>
       </c>
       <c r="M5" t="n">
-        <v>7.828312769411107</v>
+        <v>7.839559009240888</v>
       </c>
       <c r="N5" t="n">
-        <v>92.04886094272942</v>
+        <v>92.07064613252194</v>
       </c>
       <c r="O5" t="n">
-        <v>9.594209761242945</v>
+        <v>9.595345024152177</v>
       </c>
       <c r="P5" t="n">
-        <v>378.6506675544057</v>
+        <v>378.7395622175189</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10540,28 +10583,28 @@
         <v>0.0655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2024467179994326</v>
+        <v>0.1946794729721145</v>
       </c>
       <c r="J6" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K6" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02131012756757511</v>
+        <v>0.01989803605770413</v>
       </c>
       <c r="M6" t="n">
-        <v>7.985414150916808</v>
+        <v>7.986643443826439</v>
       </c>
       <c r="N6" t="n">
-        <v>105.3851045264764</v>
+        <v>105.1986353160619</v>
       </c>
       <c r="O6" t="n">
-        <v>10.26572474433619</v>
+        <v>10.25663859732134</v>
       </c>
       <c r="P6" t="n">
-        <v>372.2210579156027</v>
+        <v>372.292816361703</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -10618,28 +10661,28 @@
         <v>0.0702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1673224390451237</v>
+        <v>0.1623940850665552</v>
       </c>
       <c r="J7" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02012906672760539</v>
+        <v>0.01915605283527078</v>
       </c>
       <c r="M7" t="n">
-        <v>7.030217914468529</v>
+        <v>7.021645914147512</v>
       </c>
       <c r="N7" t="n">
-        <v>77.80275782597975</v>
+        <v>77.56821978466722</v>
       </c>
       <c r="O7" t="n">
-        <v>8.820587158799563</v>
+        <v>8.8072822019433</v>
       </c>
       <c r="P7" t="n">
-        <v>372.6303023149496</v>
+        <v>372.6753993558945</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -10696,28 +10739,28 @@
         <v>0.0731</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1988712693090159</v>
+        <v>0.1928076712811505</v>
       </c>
       <c r="J8" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K8" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02875876356686247</v>
+        <v>0.02730197667259771</v>
       </c>
       <c r="M8" t="n">
-        <v>6.730183152749545</v>
+        <v>6.725024473565228</v>
       </c>
       <c r="N8" t="n">
-        <v>76.01324947698696</v>
+        <v>75.84731295204021</v>
       </c>
       <c r="O8" t="n">
-        <v>8.718557763586071</v>
+        <v>8.709036281474559</v>
       </c>
       <c r="P8" t="n">
-        <v>372.4346437701965</v>
+        <v>372.4903440879027</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -10755,7 +10798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20943,6 +20986,53 @@
         </is>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>-34.810069714035976,173.1634257687457</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>-34.810799869704596,173.16354182289723</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-34.81152560958515,173.16367627091367</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>-34.812227633285616,173.16391921428382</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>-34.81292053049582,173.16421244230978</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>-34.81359603736349,173.1645705647917</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>-34.81427538826626,173.1649161869161</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7734,6 +7734,72 @@
         <v>371.1123076923077</v>
       </c>
       <c r="I229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>392.5928571428572</v>
+      </c>
+      <c r="C230" t="n">
+        <v>392.1428571428572</v>
+      </c>
+      <c r="D230" t="n">
+        <v>386.2492307692308</v>
+      </c>
+      <c r="E230" t="n">
+        <v>383.8692307692308</v>
+      </c>
+      <c r="F230" t="n">
+        <v>380.55</v>
+      </c>
+      <c r="G230" t="n">
+        <v>390.0792307692308</v>
+      </c>
+      <c r="H230" t="n">
+        <v>384.4592307692308</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>370.6114285714286</v>
+      </c>
+      <c r="C231" t="n">
+        <v>374.5014285714286</v>
+      </c>
+      <c r="D231" t="n">
+        <v>377.3184615384615</v>
+      </c>
+      <c r="E231" t="n">
+        <v>372.6184615384615</v>
+      </c>
+      <c r="F231" t="n">
+        <v>366.3733333333333</v>
+      </c>
+      <c r="G231" t="n">
+        <v>369.0084615384616</v>
+      </c>
+      <c r="H231" t="n">
+        <v>369.0884615384616</v>
+      </c>
+      <c r="I231" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7750,7 +7816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10098,6 +10164,26 @@
       </c>
       <c r="B234" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10271,28 +10357,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1305233741690798</v>
+        <v>0.1426314236021033</v>
       </c>
       <c r="J2" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K2" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007738540344077838</v>
+        <v>0.00931906083124423</v>
       </c>
       <c r="M2" t="n">
-        <v>8.869962347215482</v>
+        <v>8.890902913796186</v>
       </c>
       <c r="N2" t="n">
-        <v>123.3316251758583</v>
+        <v>123.6743602206266</v>
       </c>
       <c r="O2" t="n">
-        <v>11.10547726015673</v>
+        <v>11.12089745571942</v>
       </c>
       <c r="P2" t="n">
-        <v>372.0265439099393</v>
+        <v>371.9140186720326</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10349,28 +10435,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1252999233228546</v>
+        <v>0.1358630930440786</v>
       </c>
       <c r="J3" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K3" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01095330351872104</v>
+        <v>0.01297772341570091</v>
       </c>
       <c r="M3" t="n">
-        <v>7.290386608504494</v>
+        <v>7.302650217388257</v>
       </c>
       <c r="N3" t="n">
-        <v>81.50582425807245</v>
+        <v>81.75752448928236</v>
       </c>
       <c r="O3" t="n">
-        <v>9.028057612691251</v>
+        <v>9.04198675564626</v>
       </c>
       <c r="P3" t="n">
-        <v>374.5378844338363</v>
+        <v>374.4418545814335</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10427,28 +10513,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1538629486698784</v>
+        <v>0.154991222967717</v>
       </c>
       <c r="J4" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K4" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01275709559334803</v>
+        <v>0.01321058078795512</v>
       </c>
       <c r="M4" t="n">
-        <v>8.18791401524723</v>
+        <v>8.151062526407125</v>
       </c>
       <c r="N4" t="n">
-        <v>104.4275100484256</v>
+        <v>103.6025951462981</v>
       </c>
       <c r="O4" t="n">
-        <v>10.21897793560714</v>
+        <v>10.17853600211239</v>
       </c>
       <c r="P4" t="n">
-        <v>377.2440240168394</v>
+        <v>377.2336678345897</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10505,28 +10591,28 @@
         <v>0.0747</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1134187604424509</v>
+        <v>0.1069671325531922</v>
       </c>
       <c r="J5" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K5" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007878982167108695</v>
+        <v>0.007137342959037896</v>
       </c>
       <c r="M5" t="n">
-        <v>7.839559009240888</v>
+        <v>7.819451459979183</v>
       </c>
       <c r="N5" t="n">
-        <v>92.07064613252194</v>
+        <v>91.6026487410801</v>
       </c>
       <c r="O5" t="n">
-        <v>9.595345024152177</v>
+        <v>9.570927266523348</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7395622175189</v>
+        <v>378.7992781922445</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10583,28 +10669,28 @@
         <v>0.0655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1946794729721145</v>
+        <v>0.1875552572039803</v>
       </c>
       <c r="J6" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K6" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01989803605770413</v>
+        <v>0.01878808128220377</v>
       </c>
       <c r="M6" t="n">
-        <v>7.986643443826439</v>
+        <v>7.978829741091707</v>
       </c>
       <c r="N6" t="n">
-        <v>105.1986353160619</v>
+        <v>104.8238280480596</v>
       </c>
       <c r="O6" t="n">
-        <v>10.25663859732134</v>
+        <v>10.23835084611089</v>
       </c>
       <c r="P6" t="n">
-        <v>372.292816361703</v>
+        <v>372.3587949740026</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -10661,28 +10747,28 @@
         <v>0.0702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1623940850665552</v>
+        <v>0.1672747440500159</v>
       </c>
       <c r="J7" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K7" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01915605283527078</v>
+        <v>0.0204449884651331</v>
       </c>
       <c r="M7" t="n">
-        <v>7.021645914147512</v>
+        <v>7.054441548809053</v>
       </c>
       <c r="N7" t="n">
-        <v>77.56821978466722</v>
+        <v>77.9415508554753</v>
       </c>
       <c r="O7" t="n">
-        <v>8.8072822019433</v>
+        <v>8.828451214990956</v>
       </c>
       <c r="P7" t="n">
-        <v>372.6753993558945</v>
+        <v>372.6307625459986</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -10739,28 +10825,28 @@
         <v>0.0731</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1928076712811505</v>
+        <v>0.1915607037356572</v>
       </c>
       <c r="J8" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K8" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02730197667259771</v>
+        <v>0.02733074512847322</v>
       </c>
       <c r="M8" t="n">
-        <v>6.725024473565228</v>
+        <v>6.733224616071267</v>
       </c>
       <c r="N8" t="n">
-        <v>75.84731295204021</v>
+        <v>75.69557597304532</v>
       </c>
       <c r="O8" t="n">
-        <v>8.709036281474559</v>
+        <v>8.700320452319289</v>
       </c>
       <c r="P8" t="n">
-        <v>372.4903440879027</v>
+        <v>372.5018849187428</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -10798,7 +10884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21033,6 +21119,100 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>-34.81004450750784,173.16364940384435</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>-34.81077129152123,173.16376464184967</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>-34.81149438683508,173.16385217793712</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>-34.812194811530496,173.16404385898537</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>-34.812883351801375,173.16432720354612</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>-34.81353251033686,173.16475673842194</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>-34.814228223378215,173.1650504506368</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>-34.810071346663854,173.1634112837605</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>-34.8107957365133,173.16357404885218</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>-34.811511330688624,173.1637567175189</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>-34.81222566908956,173.16392667357937</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>-34.81293009165606,173.16418292935316</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>-34.81360515202979,173.16454385306844</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>-34.81428254004979,173.1648958279695</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7800,6 +7800,39 @@
         <v>369.0884615384616</v>
       </c>
       <c r="I231" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>370.8542857142857</v>
+      </c>
+      <c r="C232" t="n">
+        <v>373.5942857142857</v>
+      </c>
+      <c r="D232" t="n">
+        <v>376.8376923076923</v>
+      </c>
+      <c r="E232" t="n">
+        <v>374.5676923076923</v>
+      </c>
+      <c r="F232" t="n">
+        <v>372.7933333333333</v>
+      </c>
+      <c r="G232" t="n">
+        <v>370.9076923076923</v>
+      </c>
+      <c r="H232" t="n">
+        <v>369.9976923076923</v>
+      </c>
+      <c r="I232" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7816,7 +7849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10184,6 +10217,16 @@
       </c>
       <c r="B236" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -10357,28 +10400,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1426314236021033</v>
+        <v>0.1380449383971835</v>
       </c>
       <c r="J2" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K2" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00931906083124423</v>
+        <v>0.00882402760030554</v>
       </c>
       <c r="M2" t="n">
-        <v>8.890902913796186</v>
+        <v>8.870135934722587</v>
       </c>
       <c r="N2" t="n">
-        <v>123.6743602206266</v>
+        <v>123.1789161305571</v>
       </c>
       <c r="O2" t="n">
-        <v>11.12089745571942</v>
+        <v>11.09859973737935</v>
       </c>
       <c r="P2" t="n">
-        <v>371.9140186720326</v>
+        <v>371.9568802939481</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10435,28 +10478,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1358630930440786</v>
+        <v>0.1317549296787975</v>
       </c>
       <c r="J3" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K3" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01297772341570091</v>
+        <v>0.01233524653562479</v>
       </c>
       <c r="M3" t="n">
-        <v>7.302650217388257</v>
+        <v>7.288947879320093</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75752448928236</v>
+        <v>81.45701737070978</v>
       </c>
       <c r="O3" t="n">
-        <v>9.04198675564626</v>
+        <v>9.025354141013514</v>
       </c>
       <c r="P3" t="n">
-        <v>374.4418545814335</v>
+        <v>374.479407611267</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10513,28 +10556,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.154991222967717</v>
+        <v>0.1507543273181308</v>
       </c>
       <c r="J4" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K4" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01321058078795512</v>
+        <v>0.01263479515879207</v>
       </c>
       <c r="M4" t="n">
-        <v>8.151062526407125</v>
+        <v>8.133787416454096</v>
       </c>
       <c r="N4" t="n">
-        <v>103.6025951462981</v>
+        <v>103.1899377672132</v>
       </c>
       <c r="O4" t="n">
-        <v>10.17853600211239</v>
+        <v>10.15824481725132</v>
       </c>
       <c r="P4" t="n">
-        <v>377.2336678345897</v>
+        <v>377.2728974558663</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10591,28 +10634,28 @@
         <v>0.0747</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1069671325531922</v>
+        <v>0.1004115527077727</v>
       </c>
       <c r="J5" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K5" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007137342959037896</v>
+        <v>0.006347114374966378</v>
       </c>
       <c r="M5" t="n">
-        <v>7.819451459979183</v>
+        <v>7.816036458206937</v>
       </c>
       <c r="N5" t="n">
-        <v>91.6026487410801</v>
+        <v>91.39659037819068</v>
       </c>
       <c r="O5" t="n">
-        <v>9.570927266523348</v>
+        <v>9.560156399253659</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7992781922445</v>
+        <v>378.8601871827502</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10669,28 +10712,28 @@
         <v>0.0655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1875552572039803</v>
+        <v>0.1834987595512615</v>
       </c>
       <c r="J6" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K6" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01878808128220377</v>
+        <v>0.01817411674417768</v>
       </c>
       <c r="M6" t="n">
-        <v>7.978829741091707</v>
+        <v>7.962382017590957</v>
       </c>
       <c r="N6" t="n">
-        <v>104.8238280480596</v>
+        <v>104.4306278269455</v>
       </c>
       <c r="O6" t="n">
-        <v>10.23835084611089</v>
+        <v>10.21913048292004</v>
       </c>
       <c r="P6" t="n">
-        <v>372.3587949740026</v>
+        <v>372.3964990298613</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -10747,28 +10790,28 @@
         <v>0.0702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1672747440500159</v>
+        <v>0.1618205732318961</v>
       </c>
       <c r="J7" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K7" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0204449884651331</v>
+        <v>0.01931671293123571</v>
       </c>
       <c r="M7" t="n">
-        <v>7.054441548809053</v>
+        <v>7.048956005621755</v>
       </c>
       <c r="N7" t="n">
-        <v>77.9415508554753</v>
+        <v>77.74880561959877</v>
       </c>
       <c r="O7" t="n">
-        <v>8.828451214990956</v>
+        <v>8.81752831691505</v>
       </c>
       <c r="P7" t="n">
-        <v>372.6307625459986</v>
+        <v>372.6809837005134</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -10825,28 +10868,28 @@
         <v>0.0731</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1915607037356572</v>
+        <v>0.1847738052178651</v>
       </c>
       <c r="J8" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02733074512847322</v>
+        <v>0.02565663767959891</v>
       </c>
       <c r="M8" t="n">
-        <v>6.733224616071267</v>
+        <v>6.732398027037473</v>
       </c>
       <c r="N8" t="n">
-        <v>75.69557597304532</v>
+        <v>75.59799089053475</v>
       </c>
       <c r="O8" t="n">
-        <v>8.700320452319289</v>
+        <v>8.694710512175478</v>
       </c>
       <c r="P8" t="n">
-        <v>372.5018849187428</v>
+        <v>372.56461972561</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -10884,7 +10927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21213,6 +21256,53 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>-34.810071050139705,173.16341391458047</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-34.810796993495266,173.1635642483346</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>-34.81151224282333,173.16375157860637</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>-34.812220322929534,173.1639469763218</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>-34.812908925215886,173.16424826492377</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>-34.81359860442751,173.16456304167676</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>-34.81427932704827,173.1649049744066</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7833,6 +7833,72 @@
         <v>369.9976923076923</v>
       </c>
       <c r="I232" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>355.17</v>
+      </c>
+      <c r="C233" t="n">
+        <v>367.72</v>
+      </c>
+      <c r="D233" t="n">
+        <v>369.9369230769231</v>
+      </c>
+      <c r="E233" t="n">
+        <v>374.1469230769231</v>
+      </c>
+      <c r="F233" t="n">
+        <v>367.4566666666667</v>
+      </c>
+      <c r="G233" t="n">
+        <v>365.4469230769231</v>
+      </c>
+      <c r="H233" t="n">
+        <v>364.1369230769231</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>362.7157142857143</v>
+      </c>
+      <c r="C234" t="n">
+        <v>363.7057142857143</v>
+      </c>
+      <c r="D234" t="n">
+        <v>373.3430769230769</v>
+      </c>
+      <c r="E234" t="n">
+        <v>370.8330769230769</v>
+      </c>
+      <c r="F234" t="n">
+        <v>364.7866666666667</v>
+      </c>
+      <c r="G234" t="n">
+        <v>364.2730769230769</v>
+      </c>
+      <c r="H234" t="n">
+        <v>361.0930769230769</v>
+      </c>
+      <c r="I234" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7849,7 +7915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10227,6 +10293,26 @@
       </c>
       <c r="B237" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -10400,28 +10486,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1380449383971835</v>
+        <v>0.1068196587248286</v>
       </c>
       <c r="J2" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K2" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00882402760030554</v>
+        <v>0.005301623670611599</v>
       </c>
       <c r="M2" t="n">
-        <v>8.870135934722587</v>
+        <v>8.94100942620606</v>
       </c>
       <c r="N2" t="n">
-        <v>123.1789161305571</v>
+        <v>124.7005937741648</v>
       </c>
       <c r="O2" t="n">
-        <v>11.09859973737935</v>
+        <v>11.16694200639391</v>
       </c>
       <c r="P2" t="n">
-        <v>371.9568802939481</v>
+        <v>372.2493329220015</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10478,28 +10564,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1317549296787975</v>
+        <v>0.1093675267455844</v>
       </c>
       <c r="J3" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K3" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01233524653562479</v>
+        <v>0.008570880783718704</v>
       </c>
       <c r="M3" t="n">
-        <v>7.288947879320093</v>
+        <v>7.338674501153155</v>
       </c>
       <c r="N3" t="n">
-        <v>81.45701737070978</v>
+        <v>82.0818010640661</v>
       </c>
       <c r="O3" t="n">
-        <v>9.025354141013514</v>
+        <v>9.059900720430997</v>
       </c>
       <c r="P3" t="n">
-        <v>374.479407611267</v>
+        <v>374.6846365104506</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10556,28 +10642,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1507543273181308</v>
+        <v>0.1328741912549399</v>
       </c>
       <c r="J4" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K4" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01263479515879207</v>
+        <v>0.009974025322502689</v>
       </c>
       <c r="M4" t="n">
-        <v>8.133787416454096</v>
+        <v>8.149728076387719</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1899377672132</v>
+        <v>103.0711636661685</v>
       </c>
       <c r="O4" t="n">
-        <v>10.15824481725132</v>
+        <v>10.1523969419132</v>
       </c>
       <c r="P4" t="n">
-        <v>377.2728974558663</v>
+        <v>377.4388327096063</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10634,28 +10720,28 @@
         <v>0.0747</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1004115527077727</v>
+        <v>0.08401831520457227</v>
       </c>
       <c r="J5" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K5" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006347114374966378</v>
+        <v>0.004509939856318868</v>
       </c>
       <c r="M5" t="n">
-        <v>7.816036458206937</v>
+        <v>7.826183226239188</v>
       </c>
       <c r="N5" t="n">
-        <v>91.39659037819068</v>
+        <v>91.29635759511673</v>
       </c>
       <c r="O5" t="n">
-        <v>9.560156399253659</v>
+        <v>9.554912746598827</v>
       </c>
       <c r="P5" t="n">
-        <v>378.8601871827502</v>
+        <v>379.0129385697912</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10712,28 +10798,28 @@
         <v>0.0655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1834987595512615</v>
+        <v>0.1637043007686192</v>
       </c>
       <c r="J6" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K6" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01817411674417768</v>
+        <v>0.01467036483555462</v>
       </c>
       <c r="M6" t="n">
-        <v>7.962382017590957</v>
+        <v>7.989573467801012</v>
       </c>
       <c r="N6" t="n">
-        <v>104.4306278269455</v>
+        <v>104.5686972482203</v>
       </c>
       <c r="O6" t="n">
-        <v>10.21913048292004</v>
+        <v>10.22588369033309</v>
       </c>
       <c r="P6" t="n">
-        <v>372.3964990298613</v>
+        <v>372.5809842752163</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -10790,28 +10876,28 @@
         <v>0.0702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1618205732318961</v>
+        <v>0.1406677012298927</v>
       </c>
       <c r="J7" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K7" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01931671293123571</v>
+        <v>0.01472643252683647</v>
       </c>
       <c r="M7" t="n">
-        <v>7.048956005621755</v>
+        <v>7.090431765182799</v>
       </c>
       <c r="N7" t="n">
-        <v>77.74880561959877</v>
+        <v>78.31700140922366</v>
       </c>
       <c r="O7" t="n">
-        <v>8.81752831691505</v>
+        <v>8.849689339701348</v>
       </c>
       <c r="P7" t="n">
-        <v>372.6809837005134</v>
+        <v>372.8762799454558</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -10868,28 +10954,28 @@
         <v>0.0731</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1847738052178651</v>
+        <v>0.158588808447173</v>
       </c>
       <c r="J8" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K8" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02565663767959891</v>
+        <v>0.01893517824814905</v>
       </c>
       <c r="M8" t="n">
-        <v>6.732398027037473</v>
+        <v>6.790971821224119</v>
       </c>
       <c r="N8" t="n">
-        <v>75.59799089053475</v>
+        <v>76.85697057165616</v>
       </c>
       <c r="O8" t="n">
-        <v>8.694710512175478</v>
+        <v>8.766810741179267</v>
       </c>
       <c r="P8" t="n">
-        <v>372.56461972561</v>
+        <v>372.8073329764601</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -10927,7 +11013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21303,6 +21389,100 @@
         </is>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>-34.810090200251516,173.16324400999534</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>-34.81080513317676,173.16350078418841</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>-34.81152533521601,173.16367781669908</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>-34.81222147697462,173.16394259368582</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>-34.812926519959106,173.164193954309</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>-34.81361743043336,173.16450786956227</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>-34.814300037576544,173.16484601779155</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>-34.81008098715691,173.16332575114913</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>-34.81081069553737,173.16345741495672</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>-34.8115188729415,173.1637142248756</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>-34.81223056586536,173.1639080774187</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>-34.812935322816536,173.1641667820315</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>-34.81362147726555,173.16449600976932</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>-34.81431079377481,173.164815398102</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0023/nzd0023.xlsx
+++ b/data/nzd0023/nzd0023.xlsx
@@ -10480,10 +10480,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0582</v>
+        <v>0.0643</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0834</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>0.1068209673710366</v>
@@ -10555,13 +10555,13 @@
         <v>0.1667789442672908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0622</v>
+        <v>0.065</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0786</v>
+        <v>0.0847</v>
       </c>
       <c r="I3" t="n">
         <v>0.1093603814271339</v>
@@ -10636,10 +10636,10 @@
         <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0591</v>
+        <v>0.0543</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0718</v>
+        <v>0.0762</v>
       </c>
       <c r="I4" t="n">
         <v>0.1328944796305691</v>
@@ -10711,13 +10711,13 @@
         <v>0.4998119430983718</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0596</v>
+        <v>0.0718</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0747</v>
+        <v>0.0901</v>
       </c>
       <c r="I5" t="n">
         <v>0.08404314124831402</v>
@@ -10789,13 +10789,13 @@
         <v>0.6665838915968411</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0534</v>
+        <v>0.0677</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0655</v>
+        <v>0.0824</v>
       </c>
       <c r="I6" t="n">
         <v>0.1637290406911918</v>
@@ -10867,13 +10867,13 @@
         <v>0.833359597634775</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0576</v>
+        <v>0.0827</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0702</v>
+        <v>0.1303</v>
       </c>
       <c r="I7" t="n">
         <v>0.1406954442610173</v>
@@ -10945,13 +10945,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0604</v>
+        <v>0.0618</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0731</v>
+        <v>0.0827</v>
       </c>
       <c r="I8" t="n">
         <v>0.1586110962772712</v>
